--- a/jason.xlsx
+++ b/jason.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonxu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonxu/Cue/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,19 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>[ ] E120 catch up</t>
-  </si>
-  <si>
-    <t>[ ] Mastering Physics</t>
-  </si>
-  <si>
-    <t>[ ] CS HW</t>
-  </si>
-  <si>
-    <t>[ ] CS Lab</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tasks</t>
   </si>
@@ -47,22 +35,16 @@
     <t>Due Date</t>
   </si>
   <si>
-    <t>[ ] Clean up iTunes Library</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Monday</t>
+    <t>Related Materials (file name)</t>
+  </si>
+  <si>
+    <t>[ ] CSM</t>
+  </si>
+  <si>
+    <t>week13.pdf</t>
   </si>
 </sst>
 </file>
@@ -385,64 +367,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jason.xlsx
+++ b/jason.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/jason.xlsx
+++ b/jason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Tasks</t>
   </si>
@@ -35,23 +35,62 @@
     <t>Due Date</t>
   </si>
   <si>
+    <t>Related Materials (file name)</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>E120—Chapter 9</t>
+  </si>
+  <si>
+    <t>E120—Chapter 10</t>
+  </si>
+  <si>
+    <t>E120—Chapter 11 (appendix)</t>
+  </si>
+  <si>
+    <t>E120—Chapter 12 (appendix)</t>
+  </si>
+  <si>
+    <t>E120—Chapter 20 (appendix)</t>
+  </si>
+  <si>
+    <t>E120—Chapter 21</t>
+  </si>
+  <si>
+    <t>Website?</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>Related Materials (file name)</t>
-  </si>
-  <si>
-    <t>[ ] CSM</t>
-  </si>
-  <si>
-    <t>week13.pdf</t>
+    <t>CS Homework</t>
+  </si>
+  <si>
+    <t>Topic list for finals</t>
+  </si>
+  <si>
+    <t>5 q's on myfinance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +102,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -84,14 +146,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,19 +438,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,31 +460,83 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
